--- a/bill_russell_per_game_averages.xlsx
+++ b/bill_russell_per_game_averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
   <si>
     <t>seas_id</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>BOS</t>
+  </si>
+  <si>
+    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>1968-69</t>
@@ -773,6 +776,12 @@
       <c r="AD2">
         <v>4.9</v>
       </c>
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>55</v>
+      </c>
       <c r="AH2">
         <v>3</v>
       </c>
@@ -780,13 +789,13 @@
         <v>9.9</v>
       </c>
       <c r="AJ2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AL2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -859,6 +868,12 @@
       <c r="AD3">
         <v>4.6</v>
       </c>
+      <c r="AE3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>55</v>
+      </c>
       <c r="AH3">
         <v>3.1</v>
       </c>
@@ -866,13 +881,13 @@
         <v>12.5</v>
       </c>
       <c r="AJ3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
         <v>69</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -945,6 +960,12 @@
       <c r="AD4">
         <v>5.8</v>
       </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>55</v>
+      </c>
       <c r="AH4">
         <v>3.2</v>
       </c>
@@ -952,13 +973,13 @@
         <v>13.3</v>
       </c>
       <c r="AJ4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
         <v>69</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1031,6 +1052,12 @@
       <c r="AD5">
         <v>4.8</v>
       </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>55</v>
+      </c>
       <c r="AH5">
         <v>2.8</v>
       </c>
@@ -1038,13 +1065,13 @@
         <v>12.9</v>
       </c>
       <c r="AJ5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
         <v>69</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1117,6 +1144,12 @@
       <c r="AD6">
         <v>5.3</v>
       </c>
+      <c r="AE6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>55</v>
+      </c>
       <c r="AH6">
         <v>2.6</v>
       </c>
@@ -1124,13 +1157,13 @@
         <v>14.1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="s">
         <v>69</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1203,6 +1236,12 @@
       <c r="AD7">
         <v>4.7</v>
       </c>
+      <c r="AE7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>55</v>
+      </c>
       <c r="AH7">
         <v>2.4</v>
       </c>
@@ -1210,13 +1249,13 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="s">
         <v>69</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1289,6 +1328,12 @@
       <c r="AD8">
         <v>4.5</v>
       </c>
+      <c r="AE8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>55</v>
+      </c>
       <c r="AH8">
         <v>2.4</v>
       </c>
@@ -1296,13 +1341,13 @@
         <v>16.8</v>
       </c>
       <c r="AJ8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL8" t="s">
         <v>69</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1375,6 +1420,12 @@
       <c r="AD9">
         <v>4.5</v>
       </c>
+      <c r="AE9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>55</v>
+      </c>
       <c r="AH9">
         <v>2.7</v>
       </c>
@@ -1382,13 +1433,13 @@
         <v>18.9</v>
       </c>
       <c r="AJ9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="s">
         <v>69</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1461,6 +1512,12 @@
       <c r="AD10">
         <v>3.4</v>
       </c>
+      <c r="AE10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>55</v>
+      </c>
       <c r="AH10">
         <v>2</v>
       </c>
@@ -1468,13 +1525,13 @@
         <v>16.9</v>
       </c>
       <c r="AJ10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL10" t="s">
         <v>69</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1547,6 +1604,12 @@
       <c r="AD11">
         <v>3.7</v>
       </c>
+      <c r="AE11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>55</v>
+      </c>
       <c r="AH11">
         <v>2.8</v>
       </c>
@@ -1554,13 +1617,13 @@
         <v>18.2</v>
       </c>
       <c r="AJ11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="s">
         <v>69</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -1633,6 +1696,12 @@
       <c r="AD12">
         <v>3.2</v>
       </c>
+      <c r="AE12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>55</v>
+      </c>
       <c r="AH12">
         <v>2.3</v>
       </c>
@@ -1640,13 +1709,13 @@
         <v>16.7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" t="s">
         <v>69</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -1719,6 +1788,12 @@
       <c r="AD13">
         <v>2.9</v>
       </c>
+      <c r="AE13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>55</v>
+      </c>
       <c r="AH13">
         <v>2.6</v>
       </c>
@@ -1726,13 +1801,13 @@
         <v>16.6</v>
       </c>
       <c r="AJ13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="s">
         <v>69</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -1805,6 +1880,12 @@
       <c r="AD14">
         <v>1.8</v>
       </c>
+      <c r="AE14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>55</v>
+      </c>
       <c r="AH14">
         <v>3</v>
       </c>
@@ -1812,13 +1893,13 @@
         <v>14.7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="s">
         <v>69</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/bill_russell_per_game_averages.xlsx
+++ b/bill_russell_per_game_averages.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>seas_id</t>
   </si>
   <si>
-    <t>year</t>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>player_id</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>1969</t>
@@ -584,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,22 +708,28 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2">
         <v>3513</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>610</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>1935</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>34</v>
@@ -729,10 +738,10 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2">
         <v>77</v>
@@ -777,10 +786,10 @@
         <v>4.9</v>
       </c>
       <c r="AE2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH2">
         <v>3</v>
@@ -789,30 +798,36 @@
         <v>9.9</v>
       </c>
       <c r="AJ2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="AM2">
+        <v>1969</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>3150</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>610</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>1935</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>33</v>
@@ -821,10 +836,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>78</v>
@@ -869,10 +884,10 @@
         <v>4.6</v>
       </c>
       <c r="AE3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH3">
         <v>3.1</v>
@@ -881,30 +896,36 @@
         <v>12.5</v>
       </c>
       <c r="AJ3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL3" t="s">
         <v>70</v>
       </c>
-      <c r="AL3" t="s">
-        <v>69</v>
+      <c r="AM3">
+        <v>1968</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>2995</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>610</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>1935</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>32</v>
@@ -913,10 +934,10 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>81</v>
@@ -961,10 +982,10 @@
         <v>5.8</v>
       </c>
       <c r="AE4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH4">
         <v>3.2</v>
@@ -973,30 +994,36 @@
         <v>13.3</v>
       </c>
       <c r="AJ4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s">
         <v>70</v>
       </c>
-      <c r="AL4" t="s">
-        <v>69</v>
+      <c r="AM4">
+        <v>1967</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>2865</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>610</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>1935</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>31</v>
@@ -1005,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>78</v>
@@ -1053,10 +1080,10 @@
         <v>4.8</v>
       </c>
       <c r="AE5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH5">
         <v>2.8</v>
@@ -1065,30 +1092,36 @@
         <v>12.9</v>
       </c>
       <c r="AJ5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL5" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" t="s">
-        <v>69</v>
+      <c r="AM5">
+        <v>1966</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>2735</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>610</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>1935</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -1097,10 +1130,10 @@
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>78</v>
@@ -1145,10 +1178,10 @@
         <v>5.3</v>
       </c>
       <c r="AE6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH6">
         <v>2.6</v>
@@ -1157,30 +1190,36 @@
         <v>14.1</v>
       </c>
       <c r="AJ6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL6" t="s">
         <v>70</v>
       </c>
-      <c r="AL6" t="s">
-        <v>69</v>
+      <c r="AM6">
+        <v>1965</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>2600</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>610</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>1935</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>29</v>
@@ -1189,10 +1228,10 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>78</v>
@@ -1237,10 +1276,10 @@
         <v>4.7</v>
       </c>
       <c r="AE7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH7">
         <v>2.4</v>
@@ -1249,30 +1288,36 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL7" t="s">
         <v>70</v>
       </c>
-      <c r="AL7" t="s">
-        <v>69</v>
+      <c r="AM7">
+        <v>1964</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>2467</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>610</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>1935</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>28</v>
@@ -1281,10 +1326,10 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>78</v>
@@ -1329,10 +1374,10 @@
         <v>4.5</v>
       </c>
       <c r="AE8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH8">
         <v>2.4</v>
@@ -1341,30 +1386,36 @@
         <v>16.8</v>
       </c>
       <c r="AJ8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
         <v>70</v>
       </c>
-      <c r="AL8" t="s">
-        <v>69</v>
+      <c r="AM8">
+        <v>1963</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>2332</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>610</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>1935</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -1373,10 +1424,10 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>76</v>
@@ -1421,10 +1472,10 @@
         <v>4.5</v>
       </c>
       <c r="AE9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH9">
         <v>2.7</v>
@@ -1433,30 +1484,36 @@
         <v>18.9</v>
       </c>
       <c r="AJ9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL9" t="s">
         <v>70</v>
       </c>
-      <c r="AL9" t="s">
-        <v>69</v>
+      <c r="AM9">
+        <v>1962</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10">
         <v>2219</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>610</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>1935</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>26</v>
@@ -1465,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>78</v>
@@ -1513,10 +1570,10 @@
         <v>3.4</v>
       </c>
       <c r="AE10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH10">
         <v>2</v>
@@ -1525,30 +1582,36 @@
         <v>16.9</v>
       </c>
       <c r="AJ10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL10" t="s">
         <v>70</v>
       </c>
-      <c r="AL10" t="s">
-        <v>69</v>
+      <c r="AM10">
+        <v>1961</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>2097</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>610</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>1935</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -1557,10 +1620,10 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>74</v>
@@ -1605,10 +1668,10 @@
         <v>3.7</v>
       </c>
       <c r="AE11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH11">
         <v>2.8</v>
@@ -1617,30 +1680,36 @@
         <v>18.2</v>
       </c>
       <c r="AJ11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL11" t="s">
         <v>70</v>
       </c>
-      <c r="AL11" t="s">
-        <v>69</v>
+      <c r="AM11">
+        <v>1960</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>1985</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>610</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>1935</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -1649,10 +1718,10 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
         <v>70</v>
@@ -1697,10 +1766,10 @@
         <v>3.2</v>
       </c>
       <c r="AE12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH12">
         <v>2.3</v>
@@ -1709,30 +1778,36 @@
         <v>16.7</v>
       </c>
       <c r="AJ12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL12" t="s">
         <v>70</v>
       </c>
-      <c r="AL12" t="s">
-        <v>69</v>
+      <c r="AM12">
+        <v>1959</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>1875</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>610</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>1935</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>23</v>
@@ -1741,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13">
         <v>69</v>
@@ -1789,10 +1864,10 @@
         <v>2.9</v>
       </c>
       <c r="AE13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH13">
         <v>2.6</v>
@@ -1801,30 +1876,36 @@
         <v>16.6</v>
       </c>
       <c r="AJ13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL13" t="s">
         <v>70</v>
       </c>
-      <c r="AL13" t="s">
-        <v>69</v>
+      <c r="AM13">
+        <v>1958</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>1760</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>610</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>1935</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14">
         <v>22</v>
@@ -1833,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
         <v>48</v>
@@ -1881,10 +1962,10 @@
         <v>1.8</v>
       </c>
       <c r="AE14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH14">
         <v>3</v>
@@ -1893,13 +1974,16 @@
         <v>14.7</v>
       </c>
       <c r="AJ14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL14" t="s">
         <v>70</v>
       </c>
-      <c r="AL14" t="s">
-        <v>69</v>
+      <c r="AM14">
+        <v>1957</v>
       </c>
     </row>
   </sheetData>

--- a/bill_russell_per_game_averages.xlsx
+++ b/bill_russell_per_game_averages.xlsx
@@ -726,13 +726,13 @@
         <v>52</v>
       </c>
       <c r="E2">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -824,13 +824,13 @@
         <v>52</v>
       </c>
       <c r="E3">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -922,13 +922,13 @@
         <v>52</v>
       </c>
       <c r="E4">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -1020,13 +1020,13 @@
         <v>52</v>
       </c>
       <c r="E5">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -1118,13 +1118,13 @@
         <v>52</v>
       </c>
       <c r="E6">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>9</v>
@@ -1216,13 +1216,13 @@
         <v>52</v>
       </c>
       <c r="E7">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -1314,13 +1314,13 @@
         <v>52</v>
       </c>
       <c r="E8">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -1412,13 +1412,13 @@
         <v>52</v>
       </c>
       <c r="E9">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -1510,13 +1510,13 @@
         <v>52</v>
       </c>
       <c r="E10">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -1608,13 +1608,13 @@
         <v>52</v>
       </c>
       <c r="E11">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1706,13 +1706,13 @@
         <v>52</v>
       </c>
       <c r="E12">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1804,13 +1804,13 @@
         <v>52</v>
       </c>
       <c r="E13">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1902,13 +1902,13 @@
         <v>52</v>
       </c>
       <c r="E14">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <v>1</v>

--- a/bill_russell_per_game_averages.xlsx
+++ b/bill_russell_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id</t>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year</t>
+    <t>birth_year_x</t>
   </si>
   <si>
     <t>pos</t>

--- a/bill_russell_per_game_averages.xlsx
+++ b/bill_russell_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id_x</t>
+    <t>player_id</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year_x</t>
+    <t>birth_year</t>
   </si>
   <si>
     <t>pos</t>
@@ -133,45 +133,45 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
     <t>1969</t>
   </si>
   <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
     <t>1959</t>
   </si>
   <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
     <t>Bill Russell</t>
   </si>
   <si>
@@ -187,49 +187,49 @@
     <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
+    <t>1960-62</t>
+  </si>
+  <si>
+    <t>1963-64</t>
+  </si>
+  <si>
+    <t>1962-63</t>
+  </si>
+  <si>
+    <t>1964-65</t>
+  </si>
+  <si>
+    <t>1966-67</t>
+  </si>
+  <si>
+    <t>1957-58</t>
+  </si>
+  <si>
+    <t>1960-61</t>
+  </si>
+  <si>
+    <t>1965-66</t>
+  </si>
+  <si>
+    <t>1967-68</t>
+  </si>
+  <si>
+    <t>1956-57</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
     <t>1968-69</t>
   </si>
   <si>
-    <t>1967-68</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
-    <t>1965-66</t>
-  </si>
-  <si>
-    <t>1964-65</t>
-  </si>
-  <si>
-    <t>1963-64</t>
-  </si>
-  <si>
-    <t>1962-63</t>
-  </si>
-  <si>
-    <t>1960-62</t>
-  </si>
-  <si>
-    <t>1960-61</t>
-  </si>
-  <si>
-    <t>1959-60</t>
-  </si>
-  <si>
     <t>1958-59</t>
   </si>
   <si>
-    <t>1957-58</t>
-  </si>
-  <si>
-    <t>1956-57</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -714,13 +714,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>3513</v>
+        <v>2332</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -732,10 +732,10 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -744,46 +744,46 @@
         <v>55</v>
       </c>
       <c r="K2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2">
-        <v>42.7</v>
+        <v>45.2</v>
       </c>
       <c r="N2">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="O2">
-        <v>8.4</v>
+        <v>16.6</v>
       </c>
       <c r="P2">
-        <v>0.433</v>
+        <v>0.457</v>
       </c>
       <c r="T2">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="U2">
-        <v>8.4</v>
+        <v>16.6</v>
       </c>
       <c r="V2">
-        <v>0.433</v>
+        <v>0.457</v>
       </c>
       <c r="W2">
-        <v>0.433</v>
+        <v>0.457</v>
       </c>
       <c r="X2">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y2">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="Z2">
-        <v>0.526</v>
+        <v>0.595</v>
       </c>
       <c r="AC2">
-        <v>19.3</v>
+        <v>23.6</v>
       </c>
       <c r="AD2">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AE2" t="s">
         <v>56</v>
@@ -792,10 +792,10 @@
         <v>56</v>
       </c>
       <c r="AH2">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AI2">
-        <v>9.9</v>
+        <v>18.9</v>
       </c>
       <c r="AJ2" t="s">
         <v>57</v>
@@ -804,21 +804,21 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM2">
-        <v>1969</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>3150</v>
+        <v>2600</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -830,10 +830,10 @@
         <v>53</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
@@ -845,44 +845,44 @@
         <v>78</v>
       </c>
       <c r="M3">
-        <v>37.9</v>
+        <v>44.6</v>
       </c>
       <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>13.8</v>
+      </c>
+      <c r="P3">
+        <v>0.433</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>13.8</v>
+      </c>
+      <c r="V3">
+        <v>0.433</v>
+      </c>
+      <c r="W3">
+        <v>0.433</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>5.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.55</v>
+      </c>
+      <c r="AC3">
+        <v>24.7</v>
+      </c>
+      <c r="AD3">
         <v>4.7</v>
       </c>
-      <c r="O3">
-        <v>11</v>
-      </c>
-      <c r="P3">
-        <v>0.425</v>
-      </c>
-      <c r="T3">
-        <v>4.7</v>
-      </c>
-      <c r="U3">
-        <v>11</v>
-      </c>
-      <c r="V3">
-        <v>0.425</v>
-      </c>
-      <c r="W3">
-        <v>0.425</v>
-      </c>
-      <c r="X3">
-        <v>3.2</v>
-      </c>
-      <c r="Y3">
-        <v>5.9</v>
-      </c>
-      <c r="Z3">
-        <v>0.537</v>
-      </c>
-      <c r="AC3">
-        <v>18.6</v>
-      </c>
-      <c r="AD3">
-        <v>4.6</v>
-      </c>
       <c r="AE3" t="s">
         <v>56</v>
       </c>
@@ -890,33 +890,33 @@
         <v>56</v>
       </c>
       <c r="AH3">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AI3">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="s">
         <v>58</v>
       </c>
       <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
         <v>71</v>
       </c>
-      <c r="AL3" t="s">
-        <v>70</v>
-      </c>
       <c r="AM3">
-        <v>1968</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>2995</v>
+        <v>2467</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -928,10 +928,10 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -940,46 +940,46 @@
         <v>55</v>
       </c>
       <c r="K4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M4">
-        <v>40.7</v>
+        <v>44.9</v>
       </c>
       <c r="N4">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="O4">
-        <v>10.7</v>
+        <v>15.2</v>
       </c>
       <c r="P4">
-        <v>0.454</v>
+        <v>0.432</v>
       </c>
       <c r="T4">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="U4">
-        <v>10.7</v>
+        <v>15.2</v>
       </c>
       <c r="V4">
-        <v>0.454</v>
+        <v>0.432</v>
       </c>
       <c r="W4">
-        <v>0.454</v>
+        <v>0.432</v>
       </c>
       <c r="X4">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y4">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z4">
-        <v>0.61</v>
+        <v>0.555</v>
       </c>
       <c r="AC4">
-        <v>21</v>
+        <v>23.6</v>
       </c>
       <c r="AD4">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="AE4" t="s">
         <v>56</v>
@@ -988,33 +988,33 @@
         <v>56</v>
       </c>
       <c r="AH4">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AI4">
-        <v>13.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ4" t="s">
         <v>59</v>
       </c>
       <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
         <v>71</v>
       </c>
-      <c r="AL4" t="s">
-        <v>70</v>
-      </c>
       <c r="AM4">
-        <v>1967</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>2865</v>
+        <v>2735</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -1026,10 +1026,10 @@
         <v>53</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
@@ -1041,43 +1041,43 @@
         <v>78</v>
       </c>
       <c r="M5">
-        <v>43.4</v>
+        <v>44.4</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O5">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="P5">
-        <v>0.415</v>
+        <v>0.438</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U5">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="V5">
-        <v>0.415</v>
+        <v>0.438</v>
       </c>
       <c r="W5">
-        <v>0.415</v>
+        <v>0.438</v>
       </c>
       <c r="X5">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Y5">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z5">
-        <v>0.551</v>
+        <v>0.573</v>
       </c>
       <c r="AC5">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="AD5">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AE5" t="s">
         <v>56</v>
@@ -1086,33 +1086,33 @@
         <v>56</v>
       </c>
       <c r="AH5">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AI5">
-        <v>12.9</v>
+        <v>14.1</v>
       </c>
       <c r="AJ5" t="s">
         <v>60</v>
       </c>
       <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
         <v>71</v>
       </c>
-      <c r="AL5" t="s">
-        <v>70</v>
-      </c>
       <c r="AM5">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>2735</v>
+        <v>2995</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -1124,10 +1124,10 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>54</v>
@@ -1136,46 +1136,46 @@
         <v>55</v>
       </c>
       <c r="K6">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M6">
-        <v>44.4</v>
+        <v>40.7</v>
       </c>
       <c r="N6">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="O6">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="P6">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="T6">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="U6">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="V6">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="W6">
-        <v>0.438</v>
+        <v>0.454</v>
       </c>
       <c r="X6">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Y6">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z6">
-        <v>0.573</v>
+        <v>0.61</v>
       </c>
       <c r="AC6">
-        <v>24.1</v>
+        <v>21</v>
       </c>
       <c r="AD6">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AE6" t="s">
         <v>56</v>
@@ -1184,33 +1184,33 @@
         <v>56</v>
       </c>
       <c r="AH6">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="AI6">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="AJ6" t="s">
         <v>61</v>
       </c>
       <c r="AK6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="s">
         <v>71</v>
       </c>
-      <c r="AL6" t="s">
-        <v>70</v>
-      </c>
       <c r="AM6">
-        <v>1965</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>2600</v>
+        <v>1875</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -1222,10 +1222,10 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
@@ -1234,46 +1234,46 @@
         <v>55</v>
       </c>
       <c r="K7">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>44.6</v>
+        <v>38.3</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="O7">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="P7">
-        <v>0.433</v>
+        <v>0.442</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="U7">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="V7">
-        <v>0.433</v>
+        <v>0.442</v>
       </c>
       <c r="W7">
-        <v>0.433</v>
+        <v>0.442</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Y7">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z7">
-        <v>0.55</v>
+        <v>0.519</v>
       </c>
       <c r="AC7">
-        <v>24.7</v>
+        <v>22.7</v>
       </c>
       <c r="AD7">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="AE7" t="s">
         <v>56</v>
@@ -1282,33 +1282,33 @@
         <v>56</v>
       </c>
       <c r="AH7">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AI7">
-        <v>15</v>
+        <v>16.6</v>
       </c>
       <c r="AJ7" t="s">
         <v>62</v>
       </c>
       <c r="AK7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="s">
         <v>71</v>
       </c>
-      <c r="AL7" t="s">
-        <v>70</v>
-      </c>
       <c r="AM7">
-        <v>1964</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>2467</v>
+        <v>2219</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D8" t="s">
         <v>52</v>
@@ -1320,10 +1320,10 @@
         <v>53</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -1335,43 +1335,43 @@
         <v>78</v>
       </c>
       <c r="M8">
-        <v>44.9</v>
+        <v>44.3</v>
       </c>
       <c r="N8">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O8">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="P8">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="T8">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U8">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="V8">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="W8">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="X8">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="Y8">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Z8">
-        <v>0.555</v>
+        <v>0.55</v>
       </c>
       <c r="AC8">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="AD8">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE8" t="s">
         <v>56</v>
@@ -1380,33 +1380,33 @@
         <v>56</v>
       </c>
       <c r="AH8">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI8">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="AJ8" t="s">
         <v>63</v>
       </c>
       <c r="AK8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL8" t="s">
         <v>71</v>
       </c>
-      <c r="AL8" t="s">
-        <v>70</v>
-      </c>
       <c r="AM8">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>2332</v>
+        <v>2865</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -1418,10 +1418,10 @@
         <v>53</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>54</v>
@@ -1430,46 +1430,46 @@
         <v>55</v>
       </c>
       <c r="K9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M9">
-        <v>45.2</v>
+        <v>43.4</v>
       </c>
       <c r="N9">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>16.6</v>
+        <v>12.1</v>
       </c>
       <c r="P9">
-        <v>0.457</v>
+        <v>0.415</v>
       </c>
       <c r="T9">
-        <v>7.6</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>16.6</v>
+        <v>12.1</v>
       </c>
       <c r="V9">
-        <v>0.457</v>
+        <v>0.415</v>
       </c>
       <c r="W9">
-        <v>0.457</v>
+        <v>0.415</v>
       </c>
       <c r="X9">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Y9">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z9">
-        <v>0.595</v>
+        <v>0.551</v>
       </c>
       <c r="AC9">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="AD9">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AE9" t="s">
         <v>56</v>
@@ -1478,33 +1478,33 @@
         <v>56</v>
       </c>
       <c r="AH9">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AI9">
-        <v>18.9</v>
+        <v>12.9</v>
       </c>
       <c r="AJ9" t="s">
         <v>64</v>
       </c>
       <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="s">
         <v>71</v>
       </c>
-      <c r="AL9" t="s">
-        <v>70</v>
-      </c>
       <c r="AM9">
-        <v>1962</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>2219</v>
+        <v>3150</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1516,10 +1516,10 @@
         <v>53</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
@@ -1531,43 +1531,43 @@
         <v>78</v>
       </c>
       <c r="M10">
-        <v>44.3</v>
+        <v>37.9</v>
       </c>
       <c r="N10">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="O10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P10">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="T10">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="U10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="V10">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="W10">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="X10">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y10">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z10">
-        <v>0.55</v>
+        <v>0.537</v>
       </c>
       <c r="AC10">
-        <v>23.9</v>
+        <v>18.6</v>
       </c>
       <c r="AD10">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="AE10" t="s">
         <v>56</v>
@@ -1576,33 +1576,33 @@
         <v>56</v>
       </c>
       <c r="AH10">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="AI10">
-        <v>16.9</v>
+        <v>12.5</v>
       </c>
       <c r="AJ10" t="s">
         <v>65</v>
       </c>
       <c r="AK10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL10" t="s">
         <v>71</v>
       </c>
-      <c r="AL10" t="s">
-        <v>70</v>
-      </c>
       <c r="AM10">
-        <v>1961</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>2097</v>
+        <v>1760</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D11" t="s">
         <v>52</v>
@@ -1614,10 +1614,10 @@
         <v>53</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
         <v>54</v>
@@ -1626,46 +1626,46 @@
         <v>55</v>
       </c>
       <c r="K11">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>42.5</v>
+        <v>35.3</v>
       </c>
       <c r="N11">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="O11">
-        <v>16.1</v>
+        <v>13.5</v>
       </c>
       <c r="P11">
-        <v>0.467</v>
+        <v>0.427</v>
       </c>
       <c r="T11">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="U11">
-        <v>16.1</v>
+        <v>13.5</v>
       </c>
       <c r="V11">
-        <v>0.467</v>
+        <v>0.427</v>
       </c>
       <c r="W11">
-        <v>0.467</v>
+        <v>0.427</v>
       </c>
       <c r="X11">
         <v>3.2</v>
       </c>
       <c r="Y11">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z11">
-        <v>0.612</v>
+        <v>0.492</v>
       </c>
       <c r="AC11">
-        <v>24</v>
+        <v>19.6</v>
       </c>
       <c r="AD11">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="AE11" t="s">
         <v>56</v>
@@ -1674,33 +1674,33 @@
         <v>56</v>
       </c>
       <c r="AH11">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AI11">
-        <v>18.2</v>
+        <v>14.7</v>
       </c>
       <c r="AJ11" t="s">
         <v>66</v>
       </c>
       <c r="AK11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="s">
         <v>71</v>
       </c>
-      <c r="AL11" t="s">
-        <v>70</v>
-      </c>
       <c r="AM11">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>1985</v>
+        <v>2097</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
@@ -1712,10 +1712,10 @@
         <v>53</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>54</v>
@@ -1724,47 +1724,47 @@
         <v>55</v>
       </c>
       <c r="K12">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M12">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="N12">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O12">
-        <v>14.2</v>
+        <v>16.1</v>
       </c>
       <c r="P12">
-        <v>0.457</v>
+        <v>0.467</v>
       </c>
       <c r="T12">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U12">
-        <v>14.2</v>
+        <v>16.1</v>
       </c>
       <c r="V12">
-        <v>0.457</v>
+        <v>0.467</v>
       </c>
       <c r="W12">
-        <v>0.457</v>
+        <v>0.467</v>
       </c>
       <c r="X12">
+        <v>3.2</v>
+      </c>
+      <c r="Y12">
+        <v>5.3</v>
+      </c>
+      <c r="Z12">
+        <v>0.612</v>
+      </c>
+      <c r="AC12">
+        <v>24</v>
+      </c>
+      <c r="AD12">
         <v>3.7</v>
       </c>
-      <c r="Y12">
-        <v>6.1</v>
-      </c>
-      <c r="Z12">
-        <v>0.598</v>
-      </c>
-      <c r="AC12">
-        <v>23</v>
-      </c>
-      <c r="AD12">
-        <v>3.2</v>
-      </c>
       <c r="AE12" t="s">
         <v>56</v>
       </c>
@@ -1772,33 +1772,33 @@
         <v>56</v>
       </c>
       <c r="AH12">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AI12">
-        <v>16.7</v>
+        <v>18.2</v>
       </c>
       <c r="AJ12" t="s">
         <v>67</v>
       </c>
       <c r="AK12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" t="s">
         <v>71</v>
       </c>
-      <c r="AL12" t="s">
-        <v>70</v>
-      </c>
       <c r="AM12">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>1875</v>
+        <v>3513</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -1810,10 +1810,10 @@
         <v>53</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>54</v>
@@ -1822,46 +1822,46 @@
         <v>55</v>
       </c>
       <c r="K13">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M13">
-        <v>38.3</v>
+        <v>42.7</v>
       </c>
       <c r="N13">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="O13">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="P13">
-        <v>0.442</v>
+        <v>0.433</v>
       </c>
       <c r="T13">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="U13">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="V13">
-        <v>0.442</v>
+        <v>0.433</v>
       </c>
       <c r="W13">
-        <v>0.442</v>
+        <v>0.433</v>
       </c>
       <c r="X13">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y13">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="Z13">
-        <v>0.519</v>
+        <v>0.526</v>
       </c>
       <c r="AC13">
-        <v>22.7</v>
+        <v>19.3</v>
       </c>
       <c r="AD13">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="AE13" t="s">
         <v>56</v>
@@ -1870,10 +1870,10 @@
         <v>56</v>
       </c>
       <c r="AH13">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AI13">
-        <v>16.6</v>
+        <v>9.9</v>
       </c>
       <c r="AJ13" t="s">
         <v>68</v>
@@ -1882,21 +1882,21 @@
         <v>71</v>
       </c>
       <c r="AL13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM13">
-        <v>1958</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>1760</v>
+        <v>1985</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
@@ -1908,10 +1908,10 @@
         <v>53</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>54</v>
@@ -1920,47 +1920,47 @@
         <v>55</v>
       </c>
       <c r="K14">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>35.3</v>
+        <v>42.6</v>
       </c>
       <c r="N14">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="O14">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="P14">
-        <v>0.427</v>
+        <v>0.457</v>
       </c>
       <c r="T14">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="U14">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="V14">
-        <v>0.427</v>
+        <v>0.457</v>
       </c>
       <c r="W14">
-        <v>0.427</v>
+        <v>0.457</v>
       </c>
       <c r="X14">
+        <v>3.7</v>
+      </c>
+      <c r="Y14">
+        <v>6.1</v>
+      </c>
+      <c r="Z14">
+        <v>0.598</v>
+      </c>
+      <c r="AC14">
+        <v>23</v>
+      </c>
+      <c r="AD14">
         <v>3.2</v>
       </c>
-      <c r="Y14">
-        <v>6.4</v>
-      </c>
-      <c r="Z14">
-        <v>0.492</v>
-      </c>
-      <c r="AC14">
-        <v>19.6</v>
-      </c>
-      <c r="AD14">
-        <v>1.8</v>
-      </c>
       <c r="AE14" t="s">
         <v>56</v>
       </c>
@@ -1968,22 +1968,22 @@
         <v>56</v>
       </c>
       <c r="AH14">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AI14">
-        <v>14.7</v>
+        <v>16.7</v>
       </c>
       <c r="AJ14" t="s">
         <v>69</v>
       </c>
       <c r="AK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="s">
         <v>71</v>
       </c>
-      <c r="AL14" t="s">
-        <v>70</v>
-      </c>
       <c r="AM14">
-        <v>1957</v>
+        <v>1959</v>
       </c>
     </row>
   </sheetData>

--- a/bill_russell_per_game_averages.xlsx
+++ b/bill_russell_per_game_averages.xlsx
@@ -133,42 +133,42 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
     <t>1962</t>
   </si>
   <si>
+    <t>1969</t>
+  </si>
+  <si>
     <t>1964</t>
   </si>
   <si>
     <t>1963</t>
   </si>
   <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
     <t>1958</t>
   </si>
   <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
     <t>1968</t>
   </si>
   <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
     <t>1959</t>
   </si>
   <si>
@@ -187,40 +187,40 @@
     <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
+    <t>1964-65</t>
+  </si>
+  <si>
+    <t>1956-57</t>
+  </si>
+  <si>
+    <t>1960-61</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
+    <t>1966-67</t>
+  </si>
+  <si>
+    <t>1965-66</t>
+  </si>
+  <si>
     <t>1960-62</t>
   </si>
   <si>
+    <t>1968-69</t>
+  </si>
+  <si>
     <t>1963-64</t>
   </si>
   <si>
     <t>1962-63</t>
   </si>
   <si>
-    <t>1964-65</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
     <t>1957-58</t>
   </si>
   <si>
-    <t>1960-61</t>
-  </si>
-  <si>
-    <t>1965-66</t>
-  </si>
-  <si>
     <t>1967-68</t>
-  </si>
-  <si>
-    <t>1956-57</t>
-  </si>
-  <si>
-    <t>1959-60</t>
-  </si>
-  <si>
-    <t>1968-69</t>
   </si>
   <si>
     <t>1958-59</t>
@@ -714,7 +714,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>2332</v>
+        <v>2735</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -732,10 +732,10 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -744,46 +744,46 @@
         <v>55</v>
       </c>
       <c r="K2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M2">
-        <v>45.2</v>
+        <v>44.4</v>
       </c>
       <c r="N2">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="O2">
-        <v>16.6</v>
+        <v>12.6</v>
       </c>
       <c r="P2">
-        <v>0.457</v>
+        <v>0.438</v>
       </c>
       <c r="T2">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="U2">
-        <v>16.6</v>
+        <v>12.6</v>
       </c>
       <c r="V2">
-        <v>0.457</v>
+        <v>0.438</v>
       </c>
       <c r="W2">
-        <v>0.457</v>
+        <v>0.438</v>
       </c>
       <c r="X2">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Y2">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z2">
-        <v>0.595</v>
+        <v>0.573</v>
       </c>
       <c r="AC2">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="AD2">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE2" t="s">
         <v>56</v>
@@ -792,10 +792,10 @@
         <v>56</v>
       </c>
       <c r="AH2">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AI2">
-        <v>18.9</v>
+        <v>14.1</v>
       </c>
       <c r="AJ2" t="s">
         <v>57</v>
@@ -807,12 +807,12 @@
         <v>71</v>
       </c>
       <c r="AM2">
-        <v>1962</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>2600</v>
+        <v>1760</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -830,10 +830,10 @@
         <v>53</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
@@ -842,58 +842,58 @@
         <v>55</v>
       </c>
       <c r="K3">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>44.6</v>
+        <v>35.3</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O3">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="P3">
-        <v>0.433</v>
+        <v>0.427</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U3">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="V3">
-        <v>0.433</v>
+        <v>0.427</v>
       </c>
       <c r="W3">
-        <v>0.433</v>
+        <v>0.427</v>
       </c>
       <c r="X3">
+        <v>3.2</v>
+      </c>
+      <c r="Y3">
+        <v>6.4</v>
+      </c>
+      <c r="Z3">
+        <v>0.492</v>
+      </c>
+      <c r="AC3">
+        <v>19.6</v>
+      </c>
+      <c r="AD3">
+        <v>1.8</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3">
         <v>3</v>
       </c>
-      <c r="Y3">
-        <v>5.5</v>
-      </c>
-      <c r="Z3">
-        <v>0.55</v>
-      </c>
-      <c r="AC3">
-        <v>24.7</v>
-      </c>
-      <c r="AD3">
-        <v>4.7</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH3">
-        <v>2.4</v>
-      </c>
       <c r="AI3">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="AJ3" t="s">
         <v>58</v>
@@ -905,12 +905,12 @@
         <v>71</v>
       </c>
       <c r="AM3">
-        <v>1964</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>2467</v>
+        <v>2219</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -928,10 +928,10 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -943,43 +943,43 @@
         <v>78</v>
       </c>
       <c r="M4">
-        <v>44.9</v>
+        <v>44.3</v>
       </c>
       <c r="N4">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O4">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="P4">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="T4">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U4">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="V4">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="W4">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="X4">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="Y4">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Z4">
-        <v>0.555</v>
+        <v>0.55</v>
       </c>
       <c r="AC4">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="AD4">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE4" t="s">
         <v>56</v>
@@ -988,10 +988,10 @@
         <v>56</v>
       </c>
       <c r="AH4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI4">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="AJ4" t="s">
         <v>59</v>
@@ -1003,12 +1003,12 @@
         <v>71</v>
       </c>
       <c r="AM4">
-        <v>1963</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>2735</v>
+        <v>2097</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1026,10 +1026,10 @@
         <v>53</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
@@ -1038,46 +1038,46 @@
         <v>55</v>
       </c>
       <c r="K5">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>44.4</v>
+        <v>42.5</v>
       </c>
       <c r="N5">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O5">
-        <v>12.6</v>
+        <v>16.1</v>
       </c>
       <c r="P5">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="T5">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="U5">
-        <v>12.6</v>
+        <v>16.1</v>
       </c>
       <c r="V5">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="W5">
-        <v>0.438</v>
+        <v>0.467</v>
       </c>
       <c r="X5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y5">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z5">
-        <v>0.573</v>
+        <v>0.612</v>
       </c>
       <c r="AC5">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AD5">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="AE5" t="s">
         <v>56</v>
@@ -1086,10 +1086,10 @@
         <v>56</v>
       </c>
       <c r="AH5">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AI5">
-        <v>14.1</v>
+        <v>18.2</v>
       </c>
       <c r="AJ5" t="s">
         <v>60</v>
@@ -1101,7 +1101,7 @@
         <v>71</v>
       </c>
       <c r="AM5">
-        <v>1965</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1204,7 +1204,7 @@
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>1875</v>
+        <v>2865</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
@@ -1222,10 +1222,10 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>54</v>
@@ -1234,46 +1234,46 @@
         <v>55</v>
       </c>
       <c r="K7">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M7">
-        <v>38.3</v>
+        <v>43.4</v>
       </c>
       <c r="N7">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>15</v>
+        <v>12.1</v>
       </c>
       <c r="P7">
-        <v>0.442</v>
+        <v>0.415</v>
       </c>
       <c r="T7">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>15</v>
+        <v>12.1</v>
       </c>
       <c r="V7">
-        <v>0.442</v>
+        <v>0.415</v>
       </c>
       <c r="W7">
-        <v>0.442</v>
+        <v>0.415</v>
       </c>
       <c r="X7">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="Y7">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z7">
-        <v>0.519</v>
+        <v>0.551</v>
       </c>
       <c r="AC7">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AD7">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="AE7" t="s">
         <v>56</v>
@@ -1282,10 +1282,10 @@
         <v>56</v>
       </c>
       <c r="AH7">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AI7">
-        <v>16.6</v>
+        <v>12.9</v>
       </c>
       <c r="AJ7" t="s">
         <v>62</v>
@@ -1297,12 +1297,12 @@
         <v>71</v>
       </c>
       <c r="AM7">
-        <v>1958</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>2219</v>
+        <v>2332</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -1320,10 +1320,10 @@
         <v>53</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -1332,46 +1332,46 @@
         <v>55</v>
       </c>
       <c r="K8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M8">
-        <v>44.3</v>
+        <v>45.2</v>
       </c>
       <c r="N8">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="O8">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="P8">
-        <v>0.426</v>
+        <v>0.457</v>
       </c>
       <c r="T8">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="U8">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="V8">
-        <v>0.426</v>
+        <v>0.457</v>
       </c>
       <c r="W8">
-        <v>0.426</v>
+        <v>0.457</v>
       </c>
       <c r="X8">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Z8">
-        <v>0.55</v>
+        <v>0.595</v>
       </c>
       <c r="AC8">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AD8">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AE8" t="s">
         <v>56</v>
@@ -1380,10 +1380,10 @@
         <v>56</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AI8">
-        <v>16.9</v>
+        <v>18.9</v>
       </c>
       <c r="AJ8" t="s">
         <v>63</v>
@@ -1395,12 +1395,12 @@
         <v>71</v>
       </c>
       <c r="AM8">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>2865</v>
+        <v>3513</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1418,10 +1418,10 @@
         <v>53</v>
       </c>
       <c r="G9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>54</v>
@@ -1430,46 +1430,46 @@
         <v>55</v>
       </c>
       <c r="K9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M9">
-        <v>43.4</v>
+        <v>42.7</v>
       </c>
       <c r="N9">
+        <v>3.6</v>
+      </c>
+      <c r="O9">
+        <v>8.4</v>
+      </c>
+      <c r="P9">
+        <v>0.433</v>
+      </c>
+      <c r="T9">
+        <v>3.6</v>
+      </c>
+      <c r="U9">
+        <v>8.4</v>
+      </c>
+      <c r="V9">
+        <v>0.433</v>
+      </c>
+      <c r="W9">
+        <v>0.433</v>
+      </c>
+      <c r="X9">
+        <v>2.6</v>
+      </c>
+      <c r="Y9">
         <v>5</v>
       </c>
-      <c r="O9">
-        <v>12.1</v>
-      </c>
-      <c r="P9">
-        <v>0.415</v>
-      </c>
-      <c r="T9">
-        <v>5</v>
-      </c>
-      <c r="U9">
-        <v>12.1</v>
-      </c>
-      <c r="V9">
-        <v>0.415</v>
-      </c>
-      <c r="W9">
-        <v>0.415</v>
-      </c>
-      <c r="X9">
-        <v>2.9</v>
-      </c>
-      <c r="Y9">
-        <v>5.2</v>
-      </c>
       <c r="Z9">
-        <v>0.551</v>
+        <v>0.526</v>
       </c>
       <c r="AC9">
-        <v>22.8</v>
+        <v>19.3</v>
       </c>
       <c r="AD9">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AE9" t="s">
         <v>56</v>
@@ -1478,27 +1478,27 @@
         <v>56</v>
       </c>
       <c r="AH9">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AI9">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="AJ9" t="s">
         <v>64</v>
       </c>
       <c r="AK9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL9" t="s">
         <v>71</v>
       </c>
       <c r="AM9">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>3150</v>
+        <v>2600</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -1516,10 +1516,10 @@
         <v>53</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
@@ -1531,44 +1531,44 @@
         <v>78</v>
       </c>
       <c r="M10">
-        <v>37.9</v>
+        <v>44.6</v>
       </c>
       <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>13.8</v>
+      </c>
+      <c r="P10">
+        <v>0.433</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>13.8</v>
+      </c>
+      <c r="V10">
+        <v>0.433</v>
+      </c>
+      <c r="W10">
+        <v>0.433</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <v>5.5</v>
+      </c>
+      <c r="Z10">
+        <v>0.55</v>
+      </c>
+      <c r="AC10">
+        <v>24.7</v>
+      </c>
+      <c r="AD10">
         <v>4.7</v>
       </c>
-      <c r="O10">
-        <v>11</v>
-      </c>
-      <c r="P10">
-        <v>0.425</v>
-      </c>
-      <c r="T10">
-        <v>4.7</v>
-      </c>
-      <c r="U10">
-        <v>11</v>
-      </c>
-      <c r="V10">
-        <v>0.425</v>
-      </c>
-      <c r="W10">
-        <v>0.425</v>
-      </c>
-      <c r="X10">
-        <v>3.2</v>
-      </c>
-      <c r="Y10">
-        <v>5.9</v>
-      </c>
-      <c r="Z10">
-        <v>0.537</v>
-      </c>
-      <c r="AC10">
-        <v>18.6</v>
-      </c>
-      <c r="AD10">
-        <v>4.6</v>
-      </c>
       <c r="AE10" t="s">
         <v>56</v>
       </c>
@@ -1576,10 +1576,10 @@
         <v>56</v>
       </c>
       <c r="AH10">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="AI10">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="s">
         <v>65</v>
@@ -1591,12 +1591,12 @@
         <v>71</v>
       </c>
       <c r="AM10">
-        <v>1968</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>1760</v>
+        <v>2467</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -1614,10 +1614,10 @@
         <v>53</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
         <v>54</v>
@@ -1626,46 +1626,46 @@
         <v>55</v>
       </c>
       <c r="K11">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M11">
-        <v>35.3</v>
+        <v>44.9</v>
       </c>
       <c r="N11">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="O11">
-        <v>13.5</v>
+        <v>15.2</v>
       </c>
       <c r="P11">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="T11">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="U11">
-        <v>13.5</v>
+        <v>15.2</v>
       </c>
       <c r="V11">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="W11">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="X11">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Y11">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z11">
-        <v>0.492</v>
+        <v>0.555</v>
       </c>
       <c r="AC11">
-        <v>19.6</v>
+        <v>23.6</v>
       </c>
       <c r="AD11">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="AE11" t="s">
         <v>56</v>
@@ -1674,10 +1674,10 @@
         <v>56</v>
       </c>
       <c r="AH11">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AI11">
-        <v>14.7</v>
+        <v>16.8</v>
       </c>
       <c r="AJ11" t="s">
         <v>66</v>
@@ -1689,12 +1689,12 @@
         <v>71</v>
       </c>
       <c r="AM11">
-        <v>1957</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>2097</v>
+        <v>1875</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -1712,10 +1712,10 @@
         <v>53</v>
       </c>
       <c r="G12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>54</v>
@@ -1724,46 +1724,46 @@
         <v>55</v>
       </c>
       <c r="K12">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M12">
-        <v>42.5</v>
+        <v>38.3</v>
       </c>
       <c r="N12">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="O12">
-        <v>16.1</v>
+        <v>15</v>
       </c>
       <c r="P12">
-        <v>0.467</v>
+        <v>0.442</v>
       </c>
       <c r="T12">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="U12">
-        <v>16.1</v>
+        <v>15</v>
       </c>
       <c r="V12">
-        <v>0.467</v>
+        <v>0.442</v>
       </c>
       <c r="W12">
-        <v>0.467</v>
+        <v>0.442</v>
       </c>
       <c r="X12">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y12">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z12">
-        <v>0.612</v>
+        <v>0.519</v>
       </c>
       <c r="AC12">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="AD12">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="AE12" t="s">
         <v>56</v>
@@ -1772,10 +1772,10 @@
         <v>56</v>
       </c>
       <c r="AH12">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AI12">
-        <v>18.2</v>
+        <v>16.6</v>
       </c>
       <c r="AJ12" t="s">
         <v>67</v>
@@ -1787,12 +1787,12 @@
         <v>71</v>
       </c>
       <c r="AM12">
-        <v>1960</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>3513</v>
+        <v>3150</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1810,10 +1810,10 @@
         <v>53</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
         <v>54</v>
@@ -1822,46 +1822,46 @@
         <v>55</v>
       </c>
       <c r="K13">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13">
-        <v>42.7</v>
+        <v>37.9</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="O13">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="P13">
-        <v>0.433</v>
+        <v>0.425</v>
       </c>
       <c r="T13">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="U13">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="V13">
-        <v>0.433</v>
+        <v>0.425</v>
       </c>
       <c r="W13">
-        <v>0.433</v>
+        <v>0.425</v>
       </c>
       <c r="X13">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y13">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="Z13">
-        <v>0.526</v>
+        <v>0.537</v>
       </c>
       <c r="AC13">
-        <v>19.3</v>
+        <v>18.6</v>
       </c>
       <c r="AD13">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AE13" t="s">
         <v>56</v>
@@ -1870,22 +1870,22 @@
         <v>56</v>
       </c>
       <c r="AH13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AI13">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" t="s">
         <v>68</v>
       </c>
       <c r="AK13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="s">
         <v>71</v>
       </c>
       <c r="AM13">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="14" spans="1:39">

--- a/bill_russell_per_game_averages.xlsx
+++ b/bill_russell_per_game_averages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>seas_id</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>BOS</t>
-  </si>
-  <si>
-    <t>N/A - Stat tracked as of the 1973-74 NBA Season</t>
   </si>
   <si>
     <t>1964-65</t>
@@ -785,12 +782,6 @@
       <c r="AD2">
         <v>5.3</v>
       </c>
-      <c r="AE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>56</v>
-      </c>
       <c r="AH2">
         <v>2.6</v>
       </c>
@@ -798,13 +789,13 @@
         <v>14.1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" t="s">
         <v>70</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>71</v>
       </c>
       <c r="AM2">
         <v>1965</v>
@@ -883,12 +874,6 @@
       <c r="AD3">
         <v>1.8</v>
       </c>
-      <c r="AE3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>56</v>
-      </c>
       <c r="AH3">
         <v>3</v>
       </c>
@@ -896,13 +881,13 @@
         <v>14.7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL3" t="s">
         <v>70</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>71</v>
       </c>
       <c r="AM3">
         <v>1957</v>
@@ -981,12 +966,6 @@
       <c r="AD4">
         <v>3.4</v>
       </c>
-      <c r="AE4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>56</v>
-      </c>
       <c r="AH4">
         <v>2</v>
       </c>
@@ -994,13 +973,13 @@
         <v>16.9</v>
       </c>
       <c r="AJ4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" t="s">
         <v>70</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>71</v>
       </c>
       <c r="AM4">
         <v>1961</v>
@@ -1079,12 +1058,6 @@
       <c r="AD5">
         <v>3.7</v>
       </c>
-      <c r="AE5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>56</v>
-      </c>
       <c r="AH5">
         <v>2.8</v>
       </c>
@@ -1092,13 +1065,13 @@
         <v>18.2</v>
       </c>
       <c r="AJ5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL5" t="s">
         <v>70</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>71</v>
       </c>
       <c r="AM5">
         <v>1960</v>
@@ -1177,12 +1150,6 @@
       <c r="AD6">
         <v>5.8</v>
       </c>
-      <c r="AE6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>56</v>
-      </c>
       <c r="AH6">
         <v>3.2</v>
       </c>
@@ -1190,13 +1157,13 @@
         <v>13.3</v>
       </c>
       <c r="AJ6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL6" t="s">
         <v>70</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>71</v>
       </c>
       <c r="AM6">
         <v>1967</v>
@@ -1275,12 +1242,6 @@
       <c r="AD7">
         <v>4.8</v>
       </c>
-      <c r="AE7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>56</v>
-      </c>
       <c r="AH7">
         <v>2.8</v>
       </c>
@@ -1288,13 +1249,13 @@
         <v>12.9</v>
       </c>
       <c r="AJ7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL7" t="s">
         <v>70</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>71</v>
       </c>
       <c r="AM7">
         <v>1966</v>
@@ -1373,12 +1334,6 @@
       <c r="AD8">
         <v>4.5</v>
       </c>
-      <c r="AE8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>56</v>
-      </c>
       <c r="AH8">
         <v>2.7</v>
       </c>
@@ -1386,13 +1341,13 @@
         <v>18.9</v>
       </c>
       <c r="AJ8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL8" t="s">
         <v>70</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>71</v>
       </c>
       <c r="AM8">
         <v>1962</v>
@@ -1471,12 +1426,6 @@
       <c r="AD9">
         <v>4.9</v>
       </c>
-      <c r="AE9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>56</v>
-      </c>
       <c r="AH9">
         <v>3</v>
       </c>
@@ -1484,13 +1433,13 @@
         <v>9.9</v>
       </c>
       <c r="AJ9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM9">
         <v>1969</v>
@@ -1569,12 +1518,6 @@
       <c r="AD10">
         <v>4.7</v>
       </c>
-      <c r="AE10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>56</v>
-      </c>
       <c r="AH10">
         <v>2.4</v>
       </c>
@@ -1582,13 +1525,13 @@
         <v>15</v>
       </c>
       <c r="AJ10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL10" t="s">
         <v>70</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>71</v>
       </c>
       <c r="AM10">
         <v>1964</v>
@@ -1667,12 +1610,6 @@
       <c r="AD11">
         <v>4.5</v>
       </c>
-      <c r="AE11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>56</v>
-      </c>
       <c r="AH11">
         <v>2.4</v>
       </c>
@@ -1680,13 +1617,13 @@
         <v>16.8</v>
       </c>
       <c r="AJ11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL11" t="s">
         <v>70</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>71</v>
       </c>
       <c r="AM11">
         <v>1963</v>
@@ -1765,12 +1702,6 @@
       <c r="AD12">
         <v>2.9</v>
       </c>
-      <c r="AE12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>56</v>
-      </c>
       <c r="AH12">
         <v>2.6</v>
       </c>
@@ -1778,13 +1709,13 @@
         <v>16.6</v>
       </c>
       <c r="AJ12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL12" t="s">
         <v>70</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>71</v>
       </c>
       <c r="AM12">
         <v>1958</v>
@@ -1863,12 +1794,6 @@
       <c r="AD13">
         <v>4.6</v>
       </c>
-      <c r="AE13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>56</v>
-      </c>
       <c r="AH13">
         <v>3.1</v>
       </c>
@@ -1876,13 +1801,13 @@
         <v>12.5</v>
       </c>
       <c r="AJ13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL13" t="s">
         <v>70</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>71</v>
       </c>
       <c r="AM13">
         <v>1968</v>
@@ -1961,12 +1886,6 @@
       <c r="AD14">
         <v>3.2</v>
       </c>
-      <c r="AE14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>56</v>
-      </c>
       <c r="AH14">
         <v>2.3</v>
       </c>
@@ -1974,13 +1893,13 @@
         <v>16.7</v>
       </c>
       <c r="AJ14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK14" t="s">
         <v>69</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>70</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>71</v>
       </c>
       <c r="AM14">
         <v>1959</v>

--- a/bill_russell_per_game_averages.xlsx
+++ b/bill_russell_per_game_averages.xlsx
@@ -133,45 +133,45 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
     <t>1965</t>
   </si>
   <si>
-    <t>1957</t>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1960</t>
   </si>
   <si>
     <t>1961</t>
   </si>
   <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
     <t>1958</t>
   </si>
   <si>
     <t>1968</t>
   </si>
   <si>
-    <t>1959</t>
-  </si>
-  <si>
     <t>Bill Russell</t>
   </si>
   <si>
@@ -184,43 +184,43 @@
     <t>BOS</t>
   </si>
   <si>
+    <t>1958-59</t>
+  </si>
+  <si>
+    <t>1960-62</t>
+  </si>
+  <si>
+    <t>1966-67</t>
+  </si>
+  <si>
+    <t>1956-57</t>
+  </si>
+  <si>
     <t>1964-65</t>
   </si>
   <si>
-    <t>1956-57</t>
+    <t>1965-66</t>
+  </si>
+  <si>
+    <t>1968-69</t>
+  </si>
+  <si>
+    <t>1962-63</t>
+  </si>
+  <si>
+    <t>1963-64</t>
+  </si>
+  <si>
+    <t>1959-60</t>
   </si>
   <si>
     <t>1960-61</t>
   </si>
   <si>
-    <t>1959-60</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
-    <t>1965-66</t>
-  </si>
-  <si>
-    <t>1960-62</t>
-  </si>
-  <si>
-    <t>1968-69</t>
-  </si>
-  <si>
-    <t>1963-64</t>
-  </si>
-  <si>
-    <t>1962-63</t>
-  </si>
-  <si>
     <t>1957-58</t>
   </si>
   <si>
     <t>1967-68</t>
-  </si>
-  <si>
-    <t>1958-59</t>
   </si>
   <si>
     <t>Yes</t>
@@ -711,13 +711,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>2735</v>
+        <v>1985</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -729,10 +729,10 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
@@ -741,52 +741,52 @@
         <v>55</v>
       </c>
       <c r="K2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>44.4</v>
+        <v>42.6</v>
       </c>
       <c r="N2">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O2">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="P2">
-        <v>0.438</v>
+        <v>0.457</v>
       </c>
       <c r="T2">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U2">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="V2">
-        <v>0.438</v>
+        <v>0.457</v>
       </c>
       <c r="W2">
-        <v>0.438</v>
+        <v>0.457</v>
       </c>
       <c r="X2">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="Y2">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="Z2">
-        <v>0.573</v>
+        <v>0.598</v>
       </c>
       <c r="AC2">
-        <v>24.1</v>
+        <v>23</v>
       </c>
       <c r="AD2">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="AH2">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AI2">
-        <v>14.1</v>
+        <v>16.7</v>
       </c>
       <c r="AJ2" t="s">
         <v>56</v>
@@ -798,18 +798,18 @@
         <v>70</v>
       </c>
       <c r="AM2">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>1760</v>
+        <v>2332</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -821,10 +821,10 @@
         <v>53</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
         <v>54</v>
@@ -833,52 +833,52 @@
         <v>55</v>
       </c>
       <c r="K3">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="M3">
-        <v>35.3</v>
+        <v>45.2</v>
       </c>
       <c r="N3">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="O3">
-        <v>13.5</v>
+        <v>16.6</v>
       </c>
       <c r="P3">
-        <v>0.427</v>
+        <v>0.457</v>
       </c>
       <c r="T3">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="U3">
-        <v>13.5</v>
+        <v>16.6</v>
       </c>
       <c r="V3">
-        <v>0.427</v>
+        <v>0.457</v>
       </c>
       <c r="W3">
-        <v>0.427</v>
+        <v>0.457</v>
       </c>
       <c r="X3">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Y3">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z3">
-        <v>0.492</v>
+        <v>0.595</v>
       </c>
       <c r="AC3">
-        <v>19.6</v>
+        <v>23.6</v>
       </c>
       <c r="AD3">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="AH3">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AI3">
-        <v>14.7</v>
+        <v>18.9</v>
       </c>
       <c r="AJ3" t="s">
         <v>57</v>
@@ -890,18 +890,18 @@
         <v>70</v>
       </c>
       <c r="AM3">
-        <v>1957</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>2219</v>
+        <v>2995</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -913,10 +913,10 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -925,52 +925,52 @@
         <v>55</v>
       </c>
       <c r="K4">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M4">
-        <v>44.3</v>
+        <v>40.7</v>
       </c>
       <c r="N4">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="O4">
-        <v>16</v>
+        <v>10.7</v>
       </c>
       <c r="P4">
-        <v>0.426</v>
+        <v>0.454</v>
       </c>
       <c r="T4">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="U4">
-        <v>16</v>
+        <v>10.7</v>
       </c>
       <c r="V4">
-        <v>0.426</v>
+        <v>0.454</v>
       </c>
       <c r="W4">
-        <v>0.426</v>
+        <v>0.454</v>
       </c>
       <c r="X4">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Z4">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="AC4">
-        <v>23.9</v>
+        <v>21</v>
       </c>
       <c r="AD4">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="AH4">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="AI4">
-        <v>16.9</v>
+        <v>13.3</v>
       </c>
       <c r="AJ4" t="s">
         <v>58</v>
@@ -982,18 +982,18 @@
         <v>70</v>
       </c>
       <c r="AM4">
-        <v>1961</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>2097</v>
+        <v>1760</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -1005,10 +1005,10 @@
         <v>53</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
@@ -1017,52 +1017,52 @@
         <v>55</v>
       </c>
       <c r="K5">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M5">
-        <v>42.5</v>
+        <v>35.3</v>
       </c>
       <c r="N5">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="O5">
-        <v>16.1</v>
+        <v>13.5</v>
       </c>
       <c r="P5">
-        <v>0.467</v>
+        <v>0.427</v>
       </c>
       <c r="T5">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="U5">
-        <v>16.1</v>
+        <v>13.5</v>
       </c>
       <c r="V5">
-        <v>0.467</v>
+        <v>0.427</v>
       </c>
       <c r="W5">
-        <v>0.467</v>
+        <v>0.427</v>
       </c>
       <c r="X5">
         <v>3.2</v>
       </c>
       <c r="Y5">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z5">
-        <v>0.612</v>
+        <v>0.492</v>
       </c>
       <c r="AC5">
-        <v>24</v>
+        <v>19.6</v>
       </c>
       <c r="AD5">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="AH5">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AI5">
-        <v>18.2</v>
+        <v>14.7</v>
       </c>
       <c r="AJ5" t="s">
         <v>59</v>
@@ -1074,18 +1074,18 @@
         <v>70</v>
       </c>
       <c r="AM5">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>2995</v>
+        <v>2735</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -1097,10 +1097,10 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
         <v>54</v>
@@ -1109,52 +1109,52 @@
         <v>55</v>
       </c>
       <c r="K6">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>40.7</v>
+        <v>44.4</v>
       </c>
       <c r="N6">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="O6">
-        <v>10.7</v>
+        <v>12.6</v>
       </c>
       <c r="P6">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
       <c r="T6">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="U6">
-        <v>10.7</v>
+        <v>12.6</v>
       </c>
       <c r="V6">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
       <c r="W6">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
       <c r="X6">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Y6">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Z6">
-        <v>0.61</v>
+        <v>0.573</v>
       </c>
       <c r="AC6">
-        <v>21</v>
+        <v>24.1</v>
       </c>
       <c r="AD6">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="AH6">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AI6">
-        <v>13.3</v>
+        <v>14.1</v>
       </c>
       <c r="AJ6" t="s">
         <v>60</v>
@@ -1166,7 +1166,7 @@
         <v>70</v>
       </c>
       <c r="AM6">
-        <v>1967</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1177,7 +1177,7 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>2332</v>
+        <v>3513</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
         <v>52</v>
@@ -1281,10 +1281,10 @@
         <v>53</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>54</v>
@@ -1293,75 +1293,75 @@
         <v>55</v>
       </c>
       <c r="K8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M8">
-        <v>45.2</v>
+        <v>42.7</v>
       </c>
       <c r="N8">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="O8">
-        <v>16.6</v>
+        <v>8.4</v>
       </c>
       <c r="P8">
-        <v>0.457</v>
+        <v>0.433</v>
       </c>
       <c r="T8">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="U8">
-        <v>16.6</v>
+        <v>8.4</v>
       </c>
       <c r="V8">
-        <v>0.457</v>
+        <v>0.433</v>
       </c>
       <c r="W8">
-        <v>0.457</v>
+        <v>0.433</v>
       </c>
       <c r="X8">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="Z8">
-        <v>0.595</v>
+        <v>0.526</v>
       </c>
       <c r="AC8">
-        <v>23.6</v>
+        <v>19.3</v>
       </c>
       <c r="AD8">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AH8">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AI8">
-        <v>18.9</v>
+        <v>9.9</v>
       </c>
       <c r="AJ8" t="s">
         <v>62</v>
       </c>
       <c r="AK8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="s">
         <v>70</v>
       </c>
       <c r="AM8">
-        <v>1962</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>3513</v>
+        <v>2467</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -1373,10 +1373,10 @@
         <v>53</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
         <v>54</v>
@@ -1385,64 +1385,64 @@
         <v>55</v>
       </c>
       <c r="K9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M9">
-        <v>42.7</v>
+        <v>44.9</v>
       </c>
       <c r="N9">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="O9">
-        <v>8.4</v>
+        <v>15.2</v>
       </c>
       <c r="P9">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="T9">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="U9">
-        <v>8.4</v>
+        <v>15.2</v>
       </c>
       <c r="V9">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="W9">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="Z9">
-        <v>0.526</v>
+        <v>0.555</v>
       </c>
       <c r="AC9">
-        <v>19.3</v>
+        <v>23.6</v>
       </c>
       <c r="AD9">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AH9">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AI9">
-        <v>9.9</v>
+        <v>16.8</v>
       </c>
       <c r="AJ9" t="s">
         <v>63</v>
       </c>
       <c r="AK9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL9" t="s">
         <v>70</v>
       </c>
       <c r="AM9">
-        <v>1969</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1453,7 +1453,7 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D10" t="s">
         <v>52</v>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>2467</v>
+        <v>2097</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D11" t="s">
         <v>52</v>
@@ -1557,10 +1557,10 @@
         <v>53</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>54</v>
@@ -1569,52 +1569,52 @@
         <v>55</v>
       </c>
       <c r="K11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M11">
-        <v>44.9</v>
+        <v>42.5</v>
       </c>
       <c r="N11">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="O11">
-        <v>15.2</v>
+        <v>16.1</v>
       </c>
       <c r="P11">
-        <v>0.432</v>
+        <v>0.467</v>
       </c>
       <c r="T11">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="U11">
-        <v>15.2</v>
+        <v>16.1</v>
       </c>
       <c r="V11">
-        <v>0.432</v>
+        <v>0.467</v>
       </c>
       <c r="W11">
-        <v>0.432</v>
+        <v>0.467</v>
       </c>
       <c r="X11">
+        <v>3.2</v>
+      </c>
+      <c r="Y11">
+        <v>5.3</v>
+      </c>
+      <c r="Z11">
+        <v>0.612</v>
+      </c>
+      <c r="AC11">
+        <v>24</v>
+      </c>
+      <c r="AD11">
         <v>3.7</v>
       </c>
-      <c r="Y11">
-        <v>6.6</v>
-      </c>
-      <c r="Z11">
-        <v>0.555</v>
-      </c>
-      <c r="AC11">
-        <v>23.6</v>
-      </c>
-      <c r="AD11">
-        <v>4.5</v>
-      </c>
       <c r="AH11">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AI11">
-        <v>16.8</v>
+        <v>18.2</v>
       </c>
       <c r="AJ11" t="s">
         <v>65</v>
@@ -1626,18 +1626,18 @@
         <v>70</v>
       </c>
       <c r="AM11">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>1875</v>
+        <v>2219</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
@@ -1649,10 +1649,10 @@
         <v>53</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
         <v>54</v>
@@ -1661,52 +1661,52 @@
         <v>55</v>
       </c>
       <c r="K12">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>38.3</v>
+        <v>44.3</v>
       </c>
       <c r="N12">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P12">
-        <v>0.442</v>
+        <v>0.426</v>
       </c>
       <c r="T12">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V12">
-        <v>0.442</v>
+        <v>0.426</v>
       </c>
       <c r="W12">
-        <v>0.442</v>
+        <v>0.426</v>
       </c>
       <c r="X12">
         <v>3.3</v>
       </c>
       <c r="Y12">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="Z12">
-        <v>0.519</v>
+        <v>0.55</v>
       </c>
       <c r="AC12">
-        <v>22.7</v>
+        <v>23.9</v>
       </c>
       <c r="AD12">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AH12">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AI12">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="AJ12" t="s">
         <v>66</v>
@@ -1718,18 +1718,18 @@
         <v>70</v>
       </c>
       <c r="AM12">
-        <v>1958</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>3150</v>
+        <v>1875</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -1741,10 +1741,10 @@
         <v>53</v>
       </c>
       <c r="G13">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>54</v>
@@ -1753,52 +1753,52 @@
         <v>55</v>
       </c>
       <c r="K13">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>37.9</v>
+        <v>38.3</v>
       </c>
       <c r="N13">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P13">
-        <v>0.425</v>
+        <v>0.442</v>
       </c>
       <c r="T13">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="U13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V13">
-        <v>0.425</v>
+        <v>0.442</v>
       </c>
       <c r="W13">
-        <v>0.425</v>
+        <v>0.442</v>
       </c>
       <c r="X13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y13">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="Z13">
-        <v>0.537</v>
+        <v>0.519</v>
       </c>
       <c r="AC13">
-        <v>18.6</v>
+        <v>22.7</v>
       </c>
       <c r="AD13">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="AH13">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AI13">
-        <v>12.5</v>
+        <v>16.6</v>
       </c>
       <c r="AJ13" t="s">
         <v>67</v>
@@ -1810,18 +1810,18 @@
         <v>70</v>
       </c>
       <c r="AM13">
-        <v>1968</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>1985</v>
+        <v>3150</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
@@ -1833,10 +1833,10 @@
         <v>53</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
         <v>54</v>
@@ -1845,52 +1845,52 @@
         <v>55</v>
       </c>
       <c r="K14">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M14">
-        <v>42.6</v>
+        <v>37.9</v>
       </c>
       <c r="N14">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="O14">
-        <v>14.2</v>
+        <v>11</v>
       </c>
       <c r="P14">
-        <v>0.457</v>
+        <v>0.425</v>
       </c>
       <c r="T14">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="U14">
-        <v>14.2</v>
+        <v>11</v>
       </c>
       <c r="V14">
-        <v>0.457</v>
+        <v>0.425</v>
       </c>
       <c r="W14">
-        <v>0.457</v>
+        <v>0.425</v>
       </c>
       <c r="X14">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Y14">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z14">
-        <v>0.598</v>
+        <v>0.537</v>
       </c>
       <c r="AC14">
-        <v>23</v>
+        <v>18.6</v>
       </c>
       <c r="AD14">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="AH14">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="AI14">
-        <v>16.7</v>
+        <v>12.5</v>
       </c>
       <c r="AJ14" t="s">
         <v>68</v>
@@ -1902,7 +1902,7 @@
         <v>70</v>
       </c>
       <c r="AM14">
-        <v>1959</v>
+        <v>1968</v>
       </c>
     </row>
   </sheetData>
